--- a/UAL/output/dept1705/Anthony Sanchez_2022.xlsx
+++ b/UAL/output/dept1705/Anthony Sanchez_2022.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
